--- a/biology/Histoire de la zoologie et de la botanique/Ruggero_Verity/Ruggero_Verity.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ruggero_Verity/Ruggero_Verity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruggero (ou Roger) Verity est un médecin et un entomologiste italien, né le 20 mai 1883 à Florence et mort le 4 mars 1959 dans cette même ville[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruggero (ou Roger) Verity est un médecin et un entomologiste italien, né le 20 mai 1883 à Florence et mort le 4 mars 1959 dans cette même ville.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est d’origine britannique. Verity constitue une immense collection de Rhopalocères. Il est l’auteur de 148 publications dont Rhopalocera Palaeartica. Papilionidae et Pieridae (1905-1911, 454 pages), Le Farfalle diurne d’Italia (cinq volumes, 1940-1953, 1 688 pages) et Les Variations géographiques et saisonnières des papillons diurnes en France (trois volumes, 476 pages).
 Il est l’auteur de plus de 1 500 taxons, la plupart étant des sous-espèces. Sa collection est léguée au Musée d'histoire naturelle de l'Université de Florence (section de zoologie, La Specola)..
